--- a/ResultadoEleicoesDistritos/SANTARÉM_ENTRONCAMENTO.xlsx
+++ b/ResultadoEleicoesDistritos/SANTARÉM_ENTRONCAMENTO.xlsx
@@ -597,64 +597,64 @@
         <v>5048</v>
       </c>
       <c r="H2" t="n">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I2" t="n">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="J2" t="n">
-        <v>2076</v>
+        <v>2091</v>
       </c>
       <c r="K2" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L2" t="n">
-        <v>596</v>
+        <v>550</v>
       </c>
       <c r="M2" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N2" t="n">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="O2" t="n">
         <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
         <v>5</v>
       </c>
       <c r="R2" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="S2" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="T2" t="n">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="U2" t="n">
         <v>23</v>
       </c>
       <c r="V2" t="n">
-        <v>3261</v>
+        <v>3257</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>3199</v>
+        <v>3222</v>
       </c>
       <c r="Y2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
